--- a/data/trans_bre/P25_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,24%</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,7</t>
+          <t>-3,51; 5,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,15</t>
+          <t>-3,9; 5,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,25</t>
+          <t>-3,36; 4,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,55; 52,45</t>
+          <t>-2,5; 7,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 83,03</t>
+          <t>-60,22; 263,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,84; 120,42</t>
+          <t>-57,23; 193,06</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-71,12; 297,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,69; 272,57</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>-41,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>-7,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-26,31%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,83</t>
+          <t>-13,38; 2,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 2,08</t>
+          <t>-4,71; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,05</t>
+          <t>-8,56; 4,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,78; 120,98</t>
+          <t>-11,7; 4,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 85,0</t>
+          <t>-91,11; 92,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,67; 200,3</t>
+          <t>-77,45; 279,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-83,89; 200,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-79,7; 121,04</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-87,07%</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-41,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-37,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -2,8</t>
+          <t>-23,38; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 5,3</t>
+          <t>-6,81; 14,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 9,1</t>
+          <t>-14,56; 4,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,34</t>
+          <t>-14,75; 20,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 264,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,23%</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,51</t>
+          <t>-5,87; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,37</t>
+          <t>-2,58; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,01</t>
+          <t>-3,72; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 14,41</t>
+          <t>-3,88; 4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 32,37</t>
+          <t>-70,96; 53,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 85,49</t>
+          <t>-45,08; 116,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-57,85; 108,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; 101,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,79%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.275230174748349</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9163251921996074</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8429421393497047</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.608651905531929</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3278426953856542</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1793794779535695</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2505491591545294</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3491659919910078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 5,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 5,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 4,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 7,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-60,22; 263,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,23; 193,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-71,12; 297,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,69; 272,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.084605580520288</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.01509177770533</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.520068448283013</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.002995145359686</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5875397665521962</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5687619981455438</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7067639209636206</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4830007596807607</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.863689003519081</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.371222900195273</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.080089987238154</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.467699621714951</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.024819004668685</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.929971648863362</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.276306753927177</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.287939767965397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-41,51%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-11,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-26,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,38; 2,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 4,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 4,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 4,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-91,11; 92,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-77,45; 279,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-83,89; 200,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-79,7; 121,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.573626155191809</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.030710685346773</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5737186911316237</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.377566434299103</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.5533885332263638</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.227047330218715</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.09445347270528043</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1773992810286784</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,34%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-37,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.66793784903702</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.646119034662927</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.440714943209738</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.22638980367568</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9211776044969524</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8676783721185671</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8404688739706719</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7834199270703422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,38; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 14,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,56; 4,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; 20,87</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.917520183988038</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.35050762220043</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.189468015868175</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.770897756914835</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9486381359622816</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.08882290133014</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.756763566924776</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.574846687757611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.97014743869755</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.709847655257966</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.108523067938114</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.189362359721144</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5571862463717533</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3244402634882481</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5689143991426366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 1,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 2,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 4,66</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-70,96; 53,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-45,08; 116,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; 108,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-44,42; 101,83</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.92096523099293</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.829566178795863</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.67476924833147</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.82056756031171</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.25339829939573</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.783354292850582</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>23.22759412851555</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.87308856818677</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2412416009183856</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.02238115540284316</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6556575340834127</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.3156507578796532</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.05183640682217308</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.004955421039955788</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.105983136745342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.247439642324737</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.123226495084692</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.566175198016563</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.565776616144054</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7457681418645442</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4745469426954776</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5735750360337679</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4450638142626978</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.273581338807386</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.352732357382817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.318997397740474</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.915036701806109</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3915095950845677</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.131308398207378</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.19370938926822</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.204907975871804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
